--- a/biology/Médecine/Dose_externe/Dose_externe.xlsx
+++ b/biology/Médecine/Dose_externe/Dose_externe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En radioprotection, la dose externe est la composante de la dose efficace causée par les sources de rayonnements ionisants situées hors du corps humain. Elle est déterminée à l'aide de dosimètres.
 </t>
@@ -511,11 +523,13 @@
           <t>Définition et méthode de détermination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La dose externe est la composante de la dose efficace causée par une exposition externe à une source de rayonnements ionisants.
 Les méthodes et techniques utilisées pour mesurer ou calculer cette dose correspondent à la dosimétrie externe.
-La dose externe peut être déterminée, grâce à la mesure standardisée de l'exposition externe, à l'aide de dosimètres[1].
+La dose externe peut être déterminée, grâce à la mesure standardisée de l'exposition externe, à l'aide de dosimètres.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Évolution de la dose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'organisme, la dose connaît une décroissance exponentielle après un passage par un maximum appelé Crête de Tavernier, du nom du physicien belge Guy Tavernier découvreur du phénomène en 1948. Cette allure de courbe est semblable pour les faisceaux de photons et de neutrons et les rayons X et Gamma.
 </t>
